--- a/Business/Finance/Sponsorship/Parents/Budget 2018-2019.xlsx
+++ b/Business/Finance/Sponsorship/Parents/Budget 2018-2019.xlsx
@@ -728,7 +728,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
